--- a/Leistungsberechnung.xlsx
+++ b/Leistungsberechnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://burkhaltergroup-my.sharepoint.com/personal/l_lehmann_alpha-plan_ch/Documents/python 2/Leistungsberechnung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_AAA7337EC3729F7C0B9540735E6180747B450F28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67EAECFB-9E9B-4084-8275-4A842A6AF15E}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_AAA7337EC3729F7C0B9540735E6180747B450F28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF7F7C90-D3ED-41EF-AC25-32E9D88D74D2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HV" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="35">
   <si>
     <t>Leistungsberechnung Hauptverteilung</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Gleichzeitige Leistung (kVA)</t>
-  </si>
-  <si>
-    <t>Allg.</t>
   </si>
   <si>
     <t>Zwischentotal</t>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>Wohnungsverteilung Typ 5</t>
+  </si>
+  <si>
+    <t>Wohnungstypen</t>
   </si>
 </sst>
 </file>
@@ -572,34 +572,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -620,6 +592,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3461,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3523,40 +3523,40 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -3583,64 +3583,105 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="11">
+        <f>'1'!F43</f>
+        <v>1.75</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" ref="D12:D19" si="0">SUM(B12*C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" ref="F12:F48" si="1">SUM(D12*E12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="11">
+        <f>'2'!F43</f>
+        <v>1.75</v>
+      </c>
       <c r="D13" s="12">
-        <f t="shared" ref="D13:D19" si="0">SUM(B13*C13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="41"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.3</v>
+      </c>
       <c r="F13" s="12">
-        <f t="shared" ref="F13:F48" si="1">SUM(D13*E13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11">
+        <f>'3'!F43</f>
+        <v>1.75</v>
+      </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11">
+        <v>0.3</v>
+      </c>
       <c r="F14" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="11">
+        <f>'4'!F43</f>
+        <v>1.75</v>
+      </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11">
+        <v>0.3</v>
+      </c>
       <c r="F15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="11">
+        <f>'5'!F43</f>
+        <v>1.75</v>
+      </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="11">
+        <v>0.3</v>
+      </c>
       <c r="F16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5288,7 +5329,7 @@
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -5297,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F135" s="26">
         <f>SUM(F10:F133)</f>
@@ -5314,13 +5355,13 @@
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
       <c r="D137" s="27"/>
       <c r="E137" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F137" s="26">
         <f>SUM(F135/0.6928)</f>
@@ -5337,13 +5378,13 @@
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
       <c r="D139" s="27"/>
       <c r="E139" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F139" s="26">
         <v>0.7</v>
@@ -5367,13 +5408,13 @@
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B142" s="33"/>
       <c r="C142" s="33"/>
       <c r="D142" s="15"/>
       <c r="E142" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F142" s="35">
         <f>SUM(F135*F139)</f>
@@ -5382,13 +5423,13 @@
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143" s="33"/>
       <c r="C143" s="33"/>
       <c r="D143" s="15"/>
       <c r="E143" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F143" s="35">
         <f>SUM(F142/0.6928)</f>
@@ -5397,41 +5438,41 @@
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
       <c r="D144" s="15"/>
       <c r="E144" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="36" t="s">
         <v>17</v>
-      </c>
-      <c r="F144" s="36" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B145" s="33"/>
       <c r="C145" s="33"/>
       <c r="D145" s="15"/>
       <c r="E145" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F145" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
       <c r="D146" s="15"/>
       <c r="E146" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F146" s="37"/>
     </row>
@@ -5577,7 +5618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791E8814-023E-4536-B3A9-73F240F757E9}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A12" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -5622,7 +5663,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5639,66 +5680,66 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="12">
         <f t="shared" ref="D10:D11" si="0">SUM(B10*C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="12">
         <f t="shared" ref="F10:F32" si="1">SUM(D10*E10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5747,7 +5788,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12">
@@ -5761,7 +5802,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="14"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12">
@@ -5775,7 +5816,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12">
@@ -5789,7 +5830,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12">
@@ -5817,7 +5858,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
@@ -5831,7 +5872,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12">
@@ -5845,7 +5886,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12">
@@ -5859,7 +5900,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12">
@@ -5901,7 +5942,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12">
@@ -5915,7 +5956,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12">
@@ -5972,7 +6013,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="60"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12">
         <f t="shared" si="2"/>
@@ -5986,7 +6027,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="60"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12">
         <f t="shared" si="2"/>
@@ -6000,7 +6041,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="60"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12">
         <f t="shared" si="2"/>
@@ -6014,7 +6055,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -6039,7 +6080,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -6048,7 +6089,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="26">
         <f>SUM(F10:F34)</f>
@@ -6065,13 +6106,13 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="27"/>
       <c r="E38" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="26">
         <f>SUM(F36/0.6928)</f>
@@ -6088,13 +6129,13 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="27"/>
       <c r="E40" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="26">
         <v>0.7</v>
@@ -6118,13 +6159,13 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="15"/>
       <c r="E43" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="35">
         <f>SUM(F36*F40)</f>
@@ -6133,13 +6174,13 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="15"/>
       <c r="E44" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="35">
         <f>SUM(F43/0.6928)</f>
@@ -6148,41 +6189,41 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="15"/>
       <c r="E45" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="15"/>
       <c r="E46" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="15"/>
       <c r="E47" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="37"/>
     </row>
@@ -6317,12 +6358,12 @@
     <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="1.1811023622047245" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6339,7 +6380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CE3C85-0AEA-439F-9FC5-55DA04EA06F2}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -6384,7 +6425,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6401,66 +6442,66 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="12">
         <f t="shared" ref="D10:D11" si="0">SUM(B10*C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="12">
         <f t="shared" ref="F10:F32" si="1">SUM(D10*E10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6509,7 +6550,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12">
@@ -6523,7 +6564,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="14"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12">
@@ -6537,7 +6578,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12">
@@ -6551,7 +6592,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12">
@@ -6579,7 +6620,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
@@ -6593,7 +6634,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12">
@@ -6607,7 +6648,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12">
@@ -6621,7 +6662,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12">
@@ -6663,7 +6704,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12">
@@ -6677,7 +6718,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12">
@@ -6734,7 +6775,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="60"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12">
         <f t="shared" si="2"/>
@@ -6748,7 +6789,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="60"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12">
         <f t="shared" si="2"/>
@@ -6762,7 +6803,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="60"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12">
         <f t="shared" si="2"/>
@@ -6776,7 +6817,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -6801,7 +6842,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -6810,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="26">
         <f>SUM(F10:F34)</f>
@@ -6827,13 +6868,13 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="27"/>
       <c r="E38" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="26">
         <f>SUM(F36/0.6928)</f>
@@ -6850,13 +6891,13 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="27"/>
       <c r="E40" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="26">
         <v>0.7</v>
@@ -6880,13 +6921,13 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="15"/>
       <c r="E43" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="35">
         <f>SUM(F36*F40)</f>
@@ -6895,13 +6936,13 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="15"/>
       <c r="E44" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="35">
         <f>SUM(F43/0.6928)</f>
@@ -6910,41 +6951,41 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="15"/>
       <c r="E45" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="15"/>
       <c r="E46" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="15"/>
       <c r="E47" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="37"/>
     </row>
@@ -7079,12 +7120,12 @@
     <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="1.1811023622047245" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7101,7 +7142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A55C33-6AA3-4A68-9D32-33B806F568DF}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A18" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -7146,7 +7187,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7163,66 +7204,66 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="12">
         <f t="shared" ref="D10:D11" si="0">SUM(B10*C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="12">
         <f t="shared" ref="F10:F32" si="1">SUM(D10*E10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7271,7 +7312,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12">
@@ -7285,7 +7326,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="14"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12">
@@ -7299,7 +7340,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12">
@@ -7313,7 +7354,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12">
@@ -7341,7 +7382,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
@@ -7355,7 +7396,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12">
@@ -7369,7 +7410,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12">
@@ -7383,7 +7424,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12">
@@ -7425,7 +7466,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12">
@@ -7439,7 +7480,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12">
@@ -7496,7 +7537,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="60"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12">
         <f t="shared" si="2"/>
@@ -7510,7 +7551,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="60"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12">
         <f t="shared" si="2"/>
@@ -7524,7 +7565,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="60"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12">
         <f t="shared" si="2"/>
@@ -7538,7 +7579,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -7563,7 +7604,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -7572,7 +7613,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="26">
         <f>SUM(F10:F34)</f>
@@ -7589,13 +7630,13 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="27"/>
       <c r="E38" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="26">
         <f>SUM(F36/0.6928)</f>
@@ -7612,13 +7653,13 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="27"/>
       <c r="E40" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="26">
         <v>0.7</v>
@@ -7642,13 +7683,13 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="15"/>
       <c r="E43" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="35">
         <f>SUM(F36*F40)</f>
@@ -7657,13 +7698,13 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="15"/>
       <c r="E44" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="35">
         <f>SUM(F43/0.6928)</f>
@@ -7672,41 +7713,41 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="15"/>
       <c r="E45" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="15"/>
       <c r="E46" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="15"/>
       <c r="E47" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="37"/>
     </row>
@@ -7841,12 +7882,12 @@
     <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="1.1811023622047245" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7863,7 +7904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3291E-4324-47A0-AF5B-5C9F113B1CF6}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -7908,7 +7949,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7925,66 +7966,66 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="12">
         <f t="shared" ref="D10:D11" si="0">SUM(B10*C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="12">
         <f t="shared" ref="F10:F32" si="1">SUM(D10*E10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8033,7 +8074,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12">
@@ -8047,7 +8088,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="14"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12">
@@ -8061,7 +8102,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12">
@@ -8075,7 +8116,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12">
@@ -8103,7 +8144,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
@@ -8117,7 +8158,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12">
@@ -8131,7 +8172,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12">
@@ -8145,7 +8186,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12">
@@ -8187,7 +8228,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12">
@@ -8201,7 +8242,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12">
@@ -8258,7 +8299,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="60"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12">
         <f t="shared" si="2"/>
@@ -8272,7 +8313,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="60"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12">
         <f t="shared" si="2"/>
@@ -8286,7 +8327,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="60"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12">
         <f t="shared" si="2"/>
@@ -8300,7 +8341,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -8325,7 +8366,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -8334,7 +8375,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="26">
         <f>SUM(F10:F34)</f>
@@ -8351,13 +8392,13 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="27"/>
       <c r="E38" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="26">
         <f>SUM(F36/0.6928)</f>
@@ -8374,13 +8415,13 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="27"/>
       <c r="E40" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="26">
         <v>0.7</v>
@@ -8404,13 +8445,13 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="15"/>
       <c r="E43" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="35">
         <f>SUM(F36*F40)</f>
@@ -8419,13 +8460,13 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="15"/>
       <c r="E44" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="35">
         <f>SUM(F43/0.6928)</f>
@@ -8434,41 +8475,41 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="15"/>
       <c r="E45" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="15"/>
       <c r="E46" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="15"/>
       <c r="E47" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="37"/>
     </row>
@@ -8603,12 +8644,12 @@
     <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="1.1811023622047245" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8625,7 +8666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9FE518-3388-4F9B-8122-2B5C32FA175C}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -8670,7 +8711,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8687,66 +8728,66 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="12">
         <f t="shared" ref="D10:D11" si="0">SUM(B10*C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="12">
         <f t="shared" ref="F10:F32" si="1">SUM(D10*E10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8795,7 +8836,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12">
@@ -8809,7 +8850,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="14"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12">
@@ -8823,7 +8864,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12">
@@ -8837,7 +8878,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12">
@@ -8865,7 +8906,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
@@ -8879,7 +8920,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12">
@@ -8893,7 +8934,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12">
@@ -8907,7 +8948,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12">
@@ -8949,7 +8990,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12">
@@ -8963,7 +9004,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12">
@@ -9020,7 +9061,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="60"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12">
         <f t="shared" si="2"/>
@@ -9034,7 +9075,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="60"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12">
         <f t="shared" si="2"/>
@@ -9048,7 +9089,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="60"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12">
         <f t="shared" si="2"/>
@@ -9062,7 +9103,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -9087,7 +9128,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -9096,7 +9137,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="26">
         <f>SUM(F10:F34)</f>
@@ -9113,13 +9154,13 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="27"/>
       <c r="E38" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="26">
         <f>SUM(F36/0.6928)</f>
@@ -9136,13 +9177,13 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="27"/>
       <c r="E40" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="26">
         <v>0.7</v>
@@ -9166,13 +9207,13 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="15"/>
       <c r="E43" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="35">
         <f>SUM(F36*F40)</f>
@@ -9181,13 +9222,13 @@
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="15"/>
       <c r="E44" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="35">
         <f>SUM(F43/0.6928)</f>
@@ -9196,41 +9237,41 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="15"/>
       <c r="E45" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="15"/>
       <c r="E46" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="15"/>
       <c r="E47" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="37"/>
     </row>
@@ -9365,12 +9406,12 @@
     <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.43307086614173229" top="1.1811023622047245" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
